--- a/Testing/Test Format.xlsx
+++ b/Testing/Test Format.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/91521801b9bf144d/Thavelarn/Bachelor of Computer Science/Agile Software Projects/GitHub Repository/agile/Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A849CE1-C9A9-4BFF-A45F-6BDBADF03E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{3A849CE1-C9A9-4BFF-A45F-6BDBADF03E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F967D1AC-02AC-40BC-B250-85BB899DFB2A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E98564EC-7B36-4748-BE46-66FFB2C87DEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A:$K</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -244,25 +247,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,27 +582,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F046034-9AEF-4D67-93C5-11837A090163}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="K3" sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="11.7109375" customWidth="1"/>
+    <col min="1" max="11" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="5"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -606,29 +611,29 @@
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="16" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="5"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="9"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -640,50 +645,50 @@
       <c r="K4" s="7"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="16" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="16"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="5"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="16"/>
+      <c r="I6" s="14"/>
       <c r="J6" s="5"/>
       <c r="K6" s="7"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="F8" s="15" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="F8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="1"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -691,11 +696,11 @@
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="1"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -703,11 +708,11 @@
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="1"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -715,11 +720,11 @@
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="1"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -727,10 +732,10 @@
       <c r="K12" s="7"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="5"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -742,43 +747,43 @@
       <c r="K14" s="7"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="3" t="s">
+      <c r="C16" s="9"/>
+      <c r="D16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="9"/>
+      <c r="F16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="3" t="s">
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="4"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="10"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="14"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="13"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
+      <c r="A18" s="1"/>
       <c r="B18" s="5"/>
       <c r="C18" s="7"/>
       <c r="D18" s="5"/>
@@ -791,7 +796,7 @@
       <c r="K18" s="7"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="A19" s="1"/>
       <c r="B19" s="5"/>
       <c r="C19" s="7"/>
       <c r="D19" s="5"/>
@@ -804,7 +809,7 @@
       <c r="K19" s="7"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
+      <c r="A20" s="1"/>
       <c r="B20" s="5"/>
       <c r="C20" s="7"/>
       <c r="D20" s="5"/>
@@ -817,7 +822,7 @@
       <c r="K20" s="7"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A21" s="1"/>
       <c r="B21" s="5"/>
       <c r="C21" s="7"/>
       <c r="D21" s="5"/>
@@ -830,7 +835,7 @@
       <c r="K21" s="7"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
+      <c r="A22" s="1"/>
       <c r="B22" s="5"/>
       <c r="C22" s="7"/>
       <c r="D22" s="5"/>
@@ -842,47 +847,208 @@
       <c r="J22" s="6"/>
       <c r="K22" s="7"/>
     </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
+  <mergeCells count="98">
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="H6:I6"/>
@@ -898,7 +1064,47 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Testing/Test Format.xlsx
+++ b/Testing/Test Format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/91521801b9bf144d/Thavelarn/Bachelor of Computer Science/Agile Software Projects/GitHub Repository/agile/Testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connorking/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{3A849CE1-C9A9-4BFF-A45F-6BDBADF03E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F967D1AC-02AC-40BC-B250-85BB899DFB2A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FD484D-3D63-584A-9234-B59A861E9B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E98564EC-7B36-4748-BE46-66FFB2C87DEA}"/>
+    <workbookView xWindow="13300" yWindow="4920" windowWidth="29040" windowHeight="15840" xr2:uid="{E98564EC-7B36-4748-BE46-66FFB2C87DEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -92,19 +92,121 @@
   </si>
   <si>
     <t>Pass/Fail/Not executed/Suspended</t>
+  </si>
+  <si>
+    <t>Connor</t>
+  </si>
+  <si>
+    <t>Thavelarn</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Computer powered up</t>
+  </si>
+  <si>
+    <t>Software downloaded on computer</t>
+  </si>
+  <si>
+    <t>Test subject well rested and briefied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software open on the test computer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User's interaction with the software </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Whitebox testing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>or blackbox testing</t>
+    </r>
+  </si>
+  <si>
+    <t>User's thoughts on the UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User being able to generate a chart </t>
+  </si>
+  <si>
+    <t>User being able to export graphic</t>
+  </si>
+  <si>
+    <t>User's thoughts about the UI</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>user opening left menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">menu opens </t>
+  </si>
+  <si>
+    <t>user selects data type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">either preloaded or own data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">own data </t>
+  </si>
+  <si>
+    <t>user changes graph</t>
+  </si>
+  <si>
+    <t>user changes graph type and graph updates</t>
+  </si>
+  <si>
+    <t>graph changed to polar</t>
+  </si>
+  <si>
+    <t>user selects export file type</t>
+  </si>
+  <si>
+    <t>either .png or .jpeg</t>
+  </si>
+  <si>
+    <t>changed to .jpeg</t>
+  </si>
+  <si>
+    <t>user exports graphic</t>
+  </si>
+  <si>
+    <t>file downloads in expected file type</t>
+  </si>
+  <si>
+    <t>file downloaded as .jpeg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="3">
@@ -247,27 +349,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,426 +688,618 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="A1:K1048576"/>
+      <selection activeCell="I23" sqref="I23:K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="11" width="13.140625" customWidth="1"/>
+    <col min="1" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="11" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="14" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="D1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="14" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="14" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="12">
+        <v>1</v>
+      </c>
+      <c r="K2" s="13"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="14" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="14" t="s">
+      <c r="E6" s="11"/>
+      <c r="F6" s="20">
+        <v>44801</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I6" s="11"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
       <c r="F8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="7"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+      <c r="F12" s="1">
+        <v>4</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="15"/>
+      <c r="D16" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="8" t="s">
+      <c r="E16" s="15"/>
+      <c r="F16" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="8" t="s">
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J16" s="15"/>
+      <c r="K16" s="18"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="13"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="19"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>2</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="10"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="9"/>
+      <c r="K20" s="10"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>4</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="9"/>
+      <c r="K21" s="10"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>5</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="9"/>
+      <c r="K22" s="10"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>6</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="9"/>
+      <c r="K23" s="10"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="10"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="7"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="8"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="10"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="10"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="10"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="7"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="8"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="10"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="7"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="10"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="7"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="8"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="10"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="7"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="8"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="10"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="7"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="10"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="7"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="10"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="98">
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
     <mergeCell ref="F33:H33"/>
     <mergeCell ref="I23:K23"/>
     <mergeCell ref="I24:K24"/>
@@ -1021,88 +1316,6 @@
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="F30:H30"/>
     <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Testing/Test Format.xlsx
+++ b/Testing/Test Format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connorking/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/91521801b9bf144d/Thavelarn/Bachelor of Computer Science/Agile Software Projects/GitHub Repository/agile/Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FD484D-3D63-584A-9234-B59A861E9B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D4FD484D-3D63-584A-9234-B59A861E9B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{450C0135-3015-47D4-B68F-95E68F46FAF8}"/>
   <bookViews>
-    <workbookView xWindow="13300" yWindow="4920" windowWidth="29040" windowHeight="15840" xr2:uid="{E98564EC-7B36-4748-BE46-66FFB2C87DEA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E98564EC-7B36-4748-BE46-66FFB2C87DEA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -195,7 +195,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,15 +361,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -688,28 +688,26 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23:K23"/>
+      <selection activeCell="K3" sqref="A1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="13.1640625" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="11" width="13.1640625" customWidth="1"/>
+    <col min="1" max="11" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="17"/>
       <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11"/>
+      <c r="E1" s="17"/>
       <c r="F1" s="8" t="s">
         <v>26</v>
       </c>
@@ -719,36 +717,36 @@
       <c r="J1" s="9"/>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="10"/>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12">
+      <c r="I2" s="17"/>
+      <c r="J2" s="18">
         <v>1</v>
       </c>
-      <c r="K2" s="13"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="K2" s="19"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
@@ -761,50 +759,50 @@
       <c r="J4" s="9"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="20">
         <v>44801</v>
       </c>
       <c r="G6" s="10"/>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="11"/>
+      <c r="I6" s="17"/>
       <c r="J6" s="8"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
       <c r="F8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -824,7 +822,7 @@
       <c r="J9" s="9"/>
       <c r="K9" s="10"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -844,7 +842,7 @@
       <c r="J10" s="9"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -864,7 +862,7 @@
       <c r="J11" s="9"/>
       <c r="K11" s="10"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -884,7 +882,7 @@
       <c r="J12" s="9"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -899,43 +897,43 @@
       <c r="J14" s="9"/>
       <c r="K14" s="10"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="14" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="14" t="s">
+      <c r="E16" s="12"/>
+      <c r="F16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="14" t="s">
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="18"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J16" s="12"/>
+      <c r="K16" s="13"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="3"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="19"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -958,7 +956,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="10"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -981,7 +979,7 @@
       <c r="J19" s="9"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>3</v>
       </c>
@@ -1004,7 +1002,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -1027,7 +1025,7 @@
       <c r="J21" s="9"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>5</v>
       </c>
@@ -1050,7 +1048,7 @@
       <c r="J22" s="9"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>6</v>
       </c>
@@ -1073,7 +1071,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="10"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" s="1"/>
       <c r="B24" s="8"/>
       <c r="C24" s="10"/>
@@ -1086,7 +1084,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" s="1"/>
       <c r="B25" s="8"/>
       <c r="C25" s="10"/>
@@ -1099,7 +1097,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" s="1"/>
       <c r="B26" s="8"/>
       <c r="C26" s="10"/>
@@ -1112,7 +1110,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" s="1"/>
       <c r="B27" s="8"/>
       <c r="C27" s="10"/>
@@ -1125,7 +1123,7 @@
       <c r="J27" s="9"/>
       <c r="K27" s="10"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" s="1"/>
       <c r="B28" s="8"/>
       <c r="C28" s="10"/>
@@ -1138,7 +1136,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="10"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" s="1"/>
       <c r="B29" s="8"/>
       <c r="C29" s="10"/>
@@ -1151,7 +1149,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="10"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" s="1"/>
       <c r="B30" s="8"/>
       <c r="C30" s="10"/>
@@ -1164,7 +1162,7 @@
       <c r="J30" s="9"/>
       <c r="K30" s="10"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" s="1"/>
       <c r="B31" s="8"/>
       <c r="C31" s="10"/>
@@ -1177,7 +1175,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="10"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" s="1"/>
       <c r="B32" s="8"/>
       <c r="C32" s="10"/>
@@ -1190,7 +1188,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="10"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" s="1"/>
       <c r="B33" s="8"/>
       <c r="C33" s="10"/>
@@ -1203,7 +1201,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="10"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1218,66 +1216,28 @@
     </row>
   </sheetData>
   <mergeCells count="98">
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="D24:E24"/>
@@ -1294,28 +1254,66 @@
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Testing/Test Format.xlsx
+++ b/Testing/Test Format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/91521801b9bf144d/Thavelarn/Bachelor of Computer Science/Agile Software Projects/GitHub Repository/agile/Testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D4FD484D-3D63-584A-9234-B59A861E9B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{450C0135-3015-47D4-B68F-95E68F46FAF8}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{D4FD484D-3D63-584A-9234-B59A861E9B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8149C89F-27FF-41DF-9E1B-7236F3C7AF0A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E98564EC-7B36-4748-BE46-66FFB2C87DEA}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Test Data</t>
   </si>
   <si>
-    <t>Test Scenario</t>
-  </si>
-  <si>
     <t>Step #</t>
   </si>
   <si>
@@ -118,77 +115,76 @@
     <t xml:space="preserve">User's interaction with the software </t>
   </si>
   <si>
+    <t>User's thoughts on the UI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User being able to generate a chart </t>
+  </si>
+  <si>
+    <t>User being able to export graphic</t>
+  </si>
+  <si>
+    <t>User's thoughts about the UI</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>user opening left menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">menu opens </t>
+  </si>
+  <si>
+    <t>user selects data type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">either preloaded or own data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">own data </t>
+  </si>
+  <si>
+    <t>user changes graph</t>
+  </si>
+  <si>
+    <t>user changes graph type and graph updates</t>
+  </si>
+  <si>
+    <t>graph changed to polar</t>
+  </si>
+  <si>
+    <t>user selects export file type</t>
+  </si>
+  <si>
+    <t>either .png or .jpeg</t>
+  </si>
+  <si>
+    <t>changed to .jpeg</t>
+  </si>
+  <si>
+    <t>user exports graphic</t>
+  </si>
+  <si>
+    <t>file downloads in expected file type</t>
+  </si>
+  <si>
+    <t>file downloaded as .jpeg</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Whitebox testing </t>
+      <t>B</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
-      <t>or blackbox testing</t>
+      <t>lackbox testing</t>
     </r>
-  </si>
-  <si>
-    <t>User's thoughts on the UI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User being able to generate a chart </t>
-  </si>
-  <si>
-    <t>User being able to export graphic</t>
-  </si>
-  <si>
-    <t>User's thoughts about the UI</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>user opening left menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">menu opens </t>
-  </si>
-  <si>
-    <t>user selects data type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">either preloaded or own data </t>
-  </si>
-  <si>
-    <t xml:space="preserve">own data </t>
-  </si>
-  <si>
-    <t>user changes graph</t>
-  </si>
-  <si>
-    <t>user changes graph type and graph updates</t>
-  </si>
-  <si>
-    <t>graph changed to polar</t>
-  </si>
-  <si>
-    <t>user selects export file type</t>
-  </si>
-  <si>
-    <t>either .png or .jpeg</t>
-  </si>
-  <si>
-    <t>changed to .jpeg</t>
-  </si>
-  <si>
-    <t>user exports graphic</t>
-  </si>
-  <si>
-    <t>file downloads in expected file type</t>
-  </si>
-  <si>
-    <t>file downloaded as .jpeg</t>
   </si>
 </sst>
 </file>
@@ -205,7 +201,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
@@ -223,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -345,32 +340,54 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F046034-9AEF-4D67-93C5-11837A090163}">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="A1:K1048576"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -697,569 +714,550 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="9"/>
       <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17"/>
-      <c r="F1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="10"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10">
+        <v>1</v>
+      </c>
+      <c r="K2" s="11"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="8" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18">
-        <v>1</v>
-      </c>
-      <c r="K2" s="19"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="20">
+      <c r="E6" s="9"/>
+      <c r="F6" s="12">
         <v>44801</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="17" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="10"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
       <c r="F8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
+      <c r="G9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
+      <c r="B10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
       <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10"/>
+      <c r="G10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>3</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
       <c r="F11" s="1">
         <v>3</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
+      <c r="G11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>4</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
+      <c r="B12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
       <c r="F12" s="1">
         <v>4</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="17"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="3"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="13"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="3"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="16"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="E16" s="8"/>
+      <c r="F16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="8"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="J18" s="7"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" ht="29.25" customHeight="1">
       <c r="A19" s="1">
-        <v>2</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="1:11">
+        <v>4</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
-        <v>3</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="10"/>
-    </row>
-    <row r="21" spans="1:11">
+        <v>5</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:12" ht="29.25" customHeight="1">
       <c r="A21" s="1">
-        <v>4</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="10"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="1">
-        <v>5</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="8" t="s">
+      <c r="C21" s="8"/>
+      <c r="D21" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="10"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="1">
-        <v>6</v>
-      </c>
-      <c r="B23" s="8" t="s">
+      <c r="E21" s="20"/>
+      <c r="F21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="10"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="G21" s="7"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="8"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="10"/>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="B24" s="6"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="8"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="10"/>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="B25" s="6"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="8"/>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="10"/>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="B26" s="6"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="8"/>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="10"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="1"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="10"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="1"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="10"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="1"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="10"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="1"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="10"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="1"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="10"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="1"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="10"/>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="8"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="23"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="98">
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
+  <mergeCells count="85">
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="G12:K12"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="H6:I6"/>
@@ -1275,45 +1273,38 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="F19:H19"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="F25:H25"/>
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
